--- a/Data/CEMI_chapas.xlsx
+++ b/Data/CEMI_chapas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56367\Documents\GitHub\PyFlow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpern\Documents\GitHub\PyFlow\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7B0C0E-8630-428B-8B45-B518725AB303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B0B1A3-07EF-4BBD-AB80-F5807C15D242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19103" yWindow="-98" windowWidth="19395" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MBOM" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="207">
   <si>
     <t>Time</t>
   </si>
@@ -661,6 +661,9 @@
   </si>
   <si>
     <t>job nb</t>
+  </si>
+  <si>
+    <t>DueDate</t>
   </si>
 </sst>
 </file>
@@ -989,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7692789-1C38-476F-B78A-11B6D05AE770}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H91"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1003,7 +1006,7 @@
     <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1028,8 +1031,11 @@
       <c r="H1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1054,8 +1060,11 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1080,8 +1089,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1106,8 +1118,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1132,8 +1147,11 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1158,8 +1176,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1184,8 +1205,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1210,8 +1234,11 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1236,8 +1263,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1262,8 +1292,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1288,8 +1321,11 @@
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1314,8 +1350,11 @@
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1340,8 +1379,11 @@
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1366,8 +1408,11 @@
       <c r="H14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1392,8 +1437,11 @@
       <c r="H15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1418,8 +1466,11 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1444,8 +1495,11 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1470,8 +1524,11 @@
       <c r="H18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1496,8 +1553,11 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1522,8 +1582,11 @@
       <c r="H20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1548,8 +1611,11 @@
       <c r="H21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1574,8 +1640,11 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1600,8 +1669,11 @@
       <c r="H23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1626,8 +1698,11 @@
       <c r="H24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1652,8 +1727,11 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1678,8 +1756,11 @@
       <c r="H26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1704,8 +1785,11 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1730,8 +1814,11 @@
       <c r="H28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1756,8 +1843,11 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1782,8 +1872,11 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1808,8 +1901,11 @@
       <c r="H31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1834,8 +1930,11 @@
       <c r="H32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -1860,8 +1959,11 @@
       <c r="H33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1886,8 +1988,11 @@
       <c r="H34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1912,8 +2017,11 @@
       <c r="H35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1938,8 +2046,11 @@
       <c r="H36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -1964,8 +2075,11 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1990,8 +2104,11 @@
       <c r="H38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2016,8 +2133,11 @@
       <c r="H39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -2042,8 +2162,11 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -2068,8 +2191,11 @@
       <c r="H41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2094,8 +2220,11 @@
       <c r="H42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -2120,8 +2249,11 @@
       <c r="H43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0</v>
       </c>
@@ -2146,8 +2278,11 @@
       <c r="H44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0</v>
       </c>
@@ -2172,8 +2307,11 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
       </c>
@@ -2198,8 +2336,11 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
@@ -2224,8 +2365,11 @@
       <c r="H47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -2250,8 +2394,11 @@
       <c r="H48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -2276,8 +2423,11 @@
       <c r="H49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0</v>
       </c>
@@ -2302,8 +2452,11 @@
       <c r="H50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0</v>
       </c>
@@ -2328,8 +2481,11 @@
       <c r="H51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -2354,8 +2510,11 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
@@ -2380,8 +2539,11 @@
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -2406,8 +2568,11 @@
       <c r="H54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
@@ -2432,8 +2597,11 @@
       <c r="H55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
@@ -2458,8 +2626,11 @@
       <c r="H56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
@@ -2484,8 +2655,11 @@
       <c r="H57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0</v>
       </c>
@@ -2510,8 +2684,11 @@
       <c r="H58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0</v>
       </c>
@@ -2536,8 +2713,11 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0</v>
       </c>
@@ -2562,8 +2742,11 @@
       <c r="H60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0</v>
       </c>
@@ -2588,8 +2771,11 @@
       <c r="H61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0</v>
       </c>
@@ -2614,8 +2800,11 @@
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0</v>
       </c>
@@ -2640,8 +2829,11 @@
       <c r="H63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0</v>
       </c>
@@ -2666,8 +2858,11 @@
       <c r="H64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0</v>
       </c>
@@ -2692,8 +2887,11 @@
       <c r="H65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0</v>
       </c>
@@ -2718,8 +2916,11 @@
       <c r="H66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0</v>
       </c>
@@ -2744,8 +2945,11 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0</v>
       </c>
@@ -2770,8 +2974,11 @@
       <c r="H68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0</v>
       </c>
@@ -2796,8 +3003,11 @@
       <c r="H69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0</v>
       </c>
@@ -2822,8 +3032,11 @@
       <c r="H70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0</v>
       </c>
@@ -2848,8 +3061,11 @@
       <c r="H71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0</v>
       </c>
@@ -2874,8 +3090,11 @@
       <c r="H72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0</v>
       </c>
@@ -2900,8 +3119,11 @@
       <c r="H73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0</v>
       </c>
@@ -2926,8 +3148,11 @@
       <c r="H74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0</v>
       </c>
@@ -2952,8 +3177,11 @@
       <c r="H75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0</v>
       </c>
@@ -2978,8 +3206,11 @@
       <c r="H76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0</v>
       </c>
@@ -3004,8 +3235,11 @@
       <c r="H77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0</v>
       </c>
@@ -3030,8 +3264,11 @@
       <c r="H78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0</v>
       </c>
@@ -3056,8 +3293,11 @@
       <c r="H79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0</v>
       </c>
@@ -3082,8 +3322,11 @@
       <c r="H80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0</v>
       </c>
@@ -3108,8 +3351,11 @@
       <c r="H81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0</v>
       </c>
@@ -3134,8 +3380,11 @@
       <c r="H82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0</v>
       </c>
@@ -3160,8 +3409,11 @@
       <c r="H83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0</v>
       </c>
@@ -3186,8 +3438,11 @@
       <c r="H84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0</v>
       </c>
@@ -3212,8 +3467,11 @@
       <c r="H85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0</v>
       </c>
@@ -3238,8 +3496,11 @@
       <c r="H86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0</v>
       </c>
@@ -3264,8 +3525,11 @@
       <c r="H87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0</v>
       </c>
@@ -3290,8 +3554,11 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0</v>
       </c>
@@ -3316,8 +3583,11 @@
       <c r="H89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0</v>
       </c>
@@ -3342,8 +3612,11 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0</v>
       </c>
@@ -3367,6 +3640,9 @@
       </c>
       <c r="H91">
         <v>1</v>
+      </c>
+      <c r="I91">
+        <v>21600</v>
       </c>
     </row>
   </sheetData>
@@ -3379,8 +3655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF013EF5-E4A9-4708-8857-50220345B45D}">
   <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M92"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3402,7 +3678,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B33" ca="1" si="0">RAND()</f>
-        <v>0.96800502207468297</v>
+        <v>0.12049778646906795</v>
       </c>
       <c r="E2" t="s">
         <v>205</v>
@@ -3426,7 +3702,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73633902744025315</v>
+        <v>5.0832116361762325E-2</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3464,7 +3740,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72553435791679899</v>
+        <v>0.53583920819100372</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3501,7 +3777,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12229374096161816</v>
+        <v>0.87064214551218422</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -3538,7 +3814,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29075902762791783</v>
+        <v>0.32339804803507688</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -3575,7 +3851,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18427469226526594</v>
+        <v>0.11195060717059513</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -3612,7 +3888,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43799964421694992</v>
+        <v>0.85859526917236662</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -3649,7 +3925,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4245586405426135</v>
+        <v>0.84572574724215421</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -3686,7 +3962,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63996899761543591</v>
+        <v>0.66923192491931183</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -3723,7 +3999,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81479789982802364</v>
+        <v>0.18000115644839043</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -3760,7 +4036,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87078584673562498</v>
+        <v>0.3938733939439294</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -3797,7 +4073,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.008801411361242E-2</v>
+        <v>0.38684851479431226</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -3834,7 +4110,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74285631136600183</v>
+        <v>0.34228868462118189</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -3871,7 +4147,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24009107881517955</v>
+        <v>0.52679288664401935</v>
       </c>
       <c r="E15">
         <v>13</v>
@@ -3908,7 +4184,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45459187732684581</v>
+        <v>0.53665158053090301</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -3945,7 +4221,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73512024817571431</v>
+        <v>0.33228141348365603</v>
       </c>
       <c r="E17">
         <v>15</v>
@@ -3982,7 +4258,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10966928505927143</v>
+        <v>0.25051132116471853</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -4019,7 +4295,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93659220171422952</v>
+        <v>3.5509257173165776E-2</v>
       </c>
       <c r="E19">
         <v>17</v>
@@ -4056,7 +4332,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60487916709069656</v>
+        <v>0.4609338100097442</v>
       </c>
       <c r="E20">
         <v>18</v>
@@ -4093,7 +4369,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99272297539437337</v>
+        <v>0.83576005364923756</v>
       </c>
       <c r="E21">
         <v>19</v>
@@ -4130,7 +4406,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99260049196155664</v>
+        <v>0.37434430263813501</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -4167,7 +4443,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24032231723104136</v>
+        <v>0.58893619360636273</v>
       </c>
       <c r="E23">
         <v>21</v>
@@ -4204,7 +4480,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93226593280611914</v>
+        <v>0.67959844390884117</v>
       </c>
       <c r="E24">
         <v>22</v>
@@ -4241,7 +4517,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77975198942057755</v>
+        <v>0.72000754956787172</v>
       </c>
       <c r="E25">
         <v>23</v>
@@ -4278,7 +4554,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14475750678864763</v>
+        <v>0.78623574040952438</v>
       </c>
       <c r="E26">
         <v>24</v>
@@ -4315,7 +4591,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9439314438475583E-2</v>
+        <v>0.62608167375364798</v>
       </c>
       <c r="E27">
         <v>25</v>
@@ -4352,7 +4628,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55130168586417638</v>
+        <v>0.81250864521002242</v>
       </c>
       <c r="E28">
         <v>26</v>
@@ -4389,7 +4665,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70868167461612497</v>
+        <v>0.87855002799238069</v>
       </c>
       <c r="E29">
         <v>27</v>
@@ -4426,7 +4702,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62807789082492482</v>
+        <v>0.67817495748734258</v>
       </c>
       <c r="E30">
         <v>28</v>
@@ -4463,7 +4739,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6367043053155953</v>
+        <v>0.42370636231069914</v>
       </c>
       <c r="E31">
         <v>29</v>
@@ -4500,7 +4776,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99158534144285226</v>
+        <v>0.44089186956593562</v>
       </c>
       <c r="E32">
         <v>30</v>
@@ -4537,7 +4813,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85916641389311543</v>
+        <v>0.76919109234080008</v>
       </c>
       <c r="E33">
         <v>31</v>
@@ -4574,7 +4850,7 @@
       </c>
       <c r="B34">
         <f t="shared" ref="B34:B65" ca="1" si="1">RAND()</f>
-        <v>0.64672408544042581</v>
+        <v>0.71222713590674736</v>
       </c>
       <c r="E34">
         <v>32</v>
@@ -4611,7 +4887,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18891929435884491</v>
+        <v>0.61930846201475542</v>
       </c>
       <c r="E35">
         <v>33</v>
@@ -4648,7 +4924,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27350047859114124</v>
+        <v>0.1978004627334482</v>
       </c>
       <c r="E36">
         <v>34</v>
@@ -4685,7 +4961,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38103244980197859</v>
+        <v>0.42909443632332478</v>
       </c>
       <c r="E37">
         <v>35</v>
@@ -4722,7 +4998,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2070268776654075</v>
+        <v>9.0560448814443473E-2</v>
       </c>
       <c r="E38">
         <v>36</v>
@@ -4759,7 +5035,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93113415920438891</v>
+        <v>0.46709368076632107</v>
       </c>
       <c r="E39">
         <v>37</v>
@@ -4796,7 +5072,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59197400657690902</v>
+        <v>5.3339195050363886E-2</v>
       </c>
       <c r="E40">
         <v>38</v>
@@ -4833,7 +5109,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49861561209782768</v>
+        <v>0.42890289711172358</v>
       </c>
       <c r="E41">
         <v>39</v>
@@ -4870,7 +5146,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75600306563593866</v>
+        <v>0.6220999037747138</v>
       </c>
       <c r="E42">
         <v>40</v>
@@ -4907,7 +5183,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53793243925615997</v>
+        <v>0.49459430780843261</v>
       </c>
       <c r="E43">
         <v>41</v>
@@ -4944,7 +5220,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73831156634877371</v>
+        <v>0.51642934912490324</v>
       </c>
       <c r="E44">
         <v>42</v>
@@ -4981,7 +5257,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41927809061693633</v>
+        <v>0.54215173388826254</v>
       </c>
       <c r="E45">
         <v>43</v>
@@ -5018,7 +5294,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.842907539791659</v>
+        <v>0.68004949503426071</v>
       </c>
       <c r="E46">
         <v>44</v>
@@ -5055,7 +5331,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1993203388468664</v>
+        <v>0.80316196642620885</v>
       </c>
       <c r="E47">
         <v>45</v>
@@ -5092,7 +5368,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42229970049024057</v>
+        <v>0.36822429248560906</v>
       </c>
       <c r="E48">
         <v>46</v>
@@ -5129,7 +5405,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7809961708541201</v>
+        <v>0.9811227102255532</v>
       </c>
       <c r="E49">
         <v>47</v>
@@ -5166,7 +5442,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.255986210914257</v>
+        <v>0.68295305222864644</v>
       </c>
       <c r="E50">
         <v>48</v>
@@ -5203,7 +5479,7 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77122721595975496</v>
+        <v>0.20012104523462149</v>
       </c>
       <c r="E51">
         <v>49</v>
@@ -5240,7 +5516,7 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87276616849028044</v>
+        <v>0.90134532494861541</v>
       </c>
       <c r="E52">
         <v>50</v>
@@ -5277,7 +5553,7 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8048025641405393</v>
+        <v>0.39976857210612526</v>
       </c>
       <c r="E53">
         <v>51</v>
@@ -5314,7 +5590,7 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10067678742672537</v>
+        <v>0.22132748476528541</v>
       </c>
       <c r="E54">
         <v>52</v>
@@ -5351,7 +5627,7 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2650289096111109E-2</v>
+        <v>0.22112950709990653</v>
       </c>
       <c r="E55">
         <v>53</v>
@@ -5388,7 +5664,7 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70177452860767509</v>
+        <v>0.93472783068958243</v>
       </c>
       <c r="E56">
         <v>54</v>
@@ -5425,7 +5701,7 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24586255228620402</v>
+        <v>0.78322124371582069</v>
       </c>
       <c r="E57">
         <v>55</v>
@@ -5462,7 +5738,7 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25421637885432702</v>
+        <v>0.6540190993026509</v>
       </c>
       <c r="E58">
         <v>56</v>
@@ -5499,7 +5775,7 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2073780437022812E-2</v>
+        <v>0.93041436728083293</v>
       </c>
       <c r="E59">
         <v>57</v>
@@ -5536,7 +5812,7 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82792531044566398</v>
+        <v>0.69624377490240863</v>
       </c>
       <c r="E60">
         <v>58</v>
@@ -5573,7 +5849,7 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63641958828523737</v>
+        <v>0.81882715051443178</v>
       </c>
       <c r="E61">
         <v>59</v>
@@ -5610,7 +5886,7 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43853913124476507</v>
+        <v>0.55148417311654385</v>
       </c>
       <c r="E62">
         <v>60</v>
@@ -5647,7 +5923,7 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94737170558063177</v>
+        <v>0.97062742691172565</v>
       </c>
       <c r="E63">
         <v>61</v>
@@ -5684,7 +5960,7 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65138436835574354</v>
+        <v>0.80058774241188213</v>
       </c>
       <c r="E64">
         <v>62</v>
@@ -5721,7 +5997,7 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31704034107627999</v>
+        <v>0.79031768869792807</v>
       </c>
       <c r="E65">
         <v>63</v>
@@ -5758,7 +6034,7 @@
       </c>
       <c r="B66">
         <f t="shared" ref="B66:B91" ca="1" si="2">RAND()</f>
-        <v>0.11948728808561848</v>
+        <v>0.618206434245828</v>
       </c>
       <c r="E66">
         <v>64</v>
@@ -5795,7 +6071,7 @@
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33269224573049216</v>
+        <v>0.12889693440229055</v>
       </c>
       <c r="E67">
         <v>65</v>
@@ -5832,7 +6108,7 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27595085490940618</v>
+        <v>0.26252427512914533</v>
       </c>
       <c r="E68">
         <v>66</v>
@@ -5869,7 +6145,7 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1522226985805517E-2</v>
+        <v>7.8246868001369263E-2</v>
       </c>
       <c r="E69">
         <v>67</v>
@@ -5906,7 +6182,7 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22965386285327183</v>
+        <v>0.51406872527242131</v>
       </c>
       <c r="E70">
         <v>68</v>
@@ -5943,7 +6219,7 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12963080403047433</v>
+        <v>0.99354662579591246</v>
       </c>
       <c r="E71">
         <v>69</v>
@@ -5980,7 +6256,7 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47051303493868368</v>
+        <v>0.44478347277046126</v>
       </c>
       <c r="E72">
         <v>70</v>
@@ -6017,7 +6293,7 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66021566776740592</v>
+        <v>0.10902822132246071</v>
       </c>
       <c r="E73">
         <v>71</v>
@@ -6054,7 +6330,7 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91262306417115324</v>
+        <v>0.14819559170414964</v>
       </c>
       <c r="E74">
         <v>72</v>
@@ -6091,7 +6367,7 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63007886008138303</v>
+        <v>0.20013557602216958</v>
       </c>
       <c r="E75">
         <v>73</v>
@@ -6128,7 +6404,7 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44276997427180786</v>
+        <v>0.62998633113649394</v>
       </c>
       <c r="E76">
         <v>74</v>
@@ -6165,7 +6441,7 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16356485614419147</v>
+        <v>0.96168022774643958</v>
       </c>
       <c r="E77">
         <v>75</v>
@@ -6202,7 +6478,7 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68826729381489127</v>
+        <v>0.13228734745186188</v>
       </c>
       <c r="E78">
         <v>76</v>
@@ -6239,7 +6515,7 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58790103419609407</v>
+        <v>0.42929954806433501</v>
       </c>
       <c r="E79">
         <v>77</v>
@@ -6276,7 +6552,7 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6816966722536949</v>
+        <v>0.19628256197656213</v>
       </c>
       <c r="E80">
         <v>78</v>
@@ -6313,7 +6589,7 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33421025954011063</v>
+        <v>0.4680708099748625</v>
       </c>
       <c r="E81">
         <v>79</v>
@@ -6350,7 +6626,7 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78610966438910079</v>
+        <v>7.4269335444437923E-2</v>
       </c>
       <c r="E82">
         <v>80</v>
@@ -6387,7 +6663,7 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50599361444512747</v>
+        <v>0.72659506623625303</v>
       </c>
       <c r="E83">
         <v>81</v>
@@ -6424,7 +6700,7 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="2"/>
-        <v>5.631342968280495E-3</v>
+        <v>1.9067778237634392E-2</v>
       </c>
       <c r="E84">
         <v>82</v>
@@ -6461,7 +6737,7 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1539468307133878E-2</v>
+        <v>0.89557956312707021</v>
       </c>
       <c r="E85">
         <v>83</v>
@@ -6498,7 +6774,7 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7565997485067095E-2</v>
+        <v>0.19548840336036166</v>
       </c>
       <c r="E86">
         <v>84</v>
@@ -6535,7 +6811,7 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2347241096594247</v>
+        <v>0.96712887183913532</v>
       </c>
       <c r="E87">
         <v>85</v>
@@ -6572,7 +6848,7 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93831546378892317</v>
+        <v>0.40418889188686891</v>
       </c>
       <c r="E88">
         <v>86</v>
@@ -6609,7 +6885,7 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68876952521217782</v>
+        <v>0.62669549975664418</v>
       </c>
       <c r="E89">
         <v>87</v>
@@ -6646,7 +6922,7 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21981107145774603</v>
+        <v>0.95296833075452902</v>
       </c>
       <c r="E90">
         <v>88</v>
@@ -6683,7 +6959,7 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0713802417058038E-2</v>
+        <v>0.57499076401468241</v>
       </c>
       <c r="E91">
         <v>89</v>

--- a/Data/CEMI_chapas.xlsx
+++ b/Data/CEMI_chapas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpern\Documents\GitHub\PyFlow\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B0B1A3-07EF-4BBD-AB80-F5807C15D242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD1F553-8347-46CF-B67B-1B0A651126A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MBOM" sheetId="2" r:id="rId1"/>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7692789-1C38-476F-B78A-11B6D05AE770}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B2" t="s">
         <v>105</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B3" t="s">
         <v>106</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B4" t="s">
         <v>107</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B5" t="s">
         <v>108</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B6" t="s">
         <v>109</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B7" t="s">
         <v>110</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B8" t="s">
         <v>111</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B9" t="s">
         <v>112</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B10" t="s">
         <v>113</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B11" t="s">
         <v>114</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B12" t="s">
         <v>115</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B13" t="s">
         <v>116</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B14" t="s">
         <v>117</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B15" t="s">
         <v>118</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B17" t="s">
         <v>120</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B18" t="s">
         <v>121</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B20" t="s">
         <v>123</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B21" t="s">
         <v>124</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B22" t="s">
         <v>125</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B23" t="s">
         <v>126</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B24" t="s">
         <v>127</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B25" t="s">
         <v>128</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B26" t="s">
         <v>129</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B27" t="s">
         <v>130</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B28" t="s">
         <v>131</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B29" t="s">
         <v>132</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B30" t="s">
         <v>133</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B31" t="s">
         <v>134</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B32" t="s">
         <v>135</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B33" t="s">
         <v>136</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B34" t="s">
         <v>137</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B35" t="s">
         <v>138</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B36" t="s">
         <v>139</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B37" t="s">
         <v>140</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B38" t="s">
         <v>141</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B39" t="s">
         <v>142</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B40" t="s">
         <v>143</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B41" t="s">
         <v>144</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B42" t="s">
         <v>145</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B43" t="s">
         <v>146</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B44" t="s">
         <v>147</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B45" t="s">
         <v>148</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B46" t="s">
         <v>149</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B47" t="s">
         <v>150</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B48" t="s">
         <v>151</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B49" t="s">
         <v>152</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B50" t="s">
         <v>153</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B51" t="s">
         <v>154</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B52" t="s">
         <v>155</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B53" t="s">
         <v>156</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B54" t="s">
         <v>157</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B55" t="s">
         <v>158</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B56" t="s">
         <v>159</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B57" t="s">
         <v>160</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B58" t="s">
         <v>161</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B59" t="s">
         <v>162</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B60" t="s">
         <v>163</v>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B61" t="s">
         <v>164</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B62" t="s">
         <v>165</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B63" t="s">
         <v>166</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B64" t="s">
         <v>167</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B65" t="s">
         <v>168</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B66" t="s">
         <v>169</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B67" t="s">
         <v>170</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B68" t="s">
         <v>171</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B69" t="s">
         <v>172</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B70" t="s">
         <v>173</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B71" t="s">
         <v>174</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B72" t="s">
         <v>175</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B73" t="s">
         <v>176</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B74" t="s">
         <v>177</v>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B75" t="s">
         <v>178</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B76" t="s">
         <v>179</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B77" t="s">
         <v>180</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B78" t="s">
         <v>181</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B79" t="s">
         <v>182</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B80" t="s">
         <v>183</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B81" t="s">
         <v>184</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B82" t="s">
         <v>185</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B83" t="s">
         <v>186</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B84" t="s">
         <v>187</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B85" t="s">
         <v>188</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B86" t="s">
         <v>189</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B87" t="s">
         <v>190</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B88" t="s">
         <v>191</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B89" t="s">
         <v>192</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B90" t="s">
         <v>193</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>0</v>
+        <v>78.612300000000005</v>
       </c>
       <c r="B91" t="s">
         <v>194</v>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B33" ca="1" si="0">RAND()</f>
-        <v>0.12049778646906795</v>
+        <v>0.70823352183354038</v>
       </c>
       <c r="E2" t="s">
         <v>205</v>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0832116361762325E-2</v>
+        <v>0.13179784902751146</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53583920819100372</v>
+        <v>0.12245099614513888</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87064214551218422</v>
+        <v>0.65874118915785596</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32339804803507688</v>
+        <v>0.26604149374730468</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11195060717059513</v>
+        <v>0.88816307916671655</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85859526917236662</v>
+        <v>0.10767286555106603</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84572574724215421</v>
+        <v>0.39060405606737814</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66923192491931183</v>
+        <v>5.8479079477769869E-2</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18000115644839043</v>
+        <v>0.2239678162744726</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3938733939439294</v>
+        <v>0.93073981584365972</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38684851479431226</v>
+        <v>0.9605369520853585</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34228868462118189</v>
+        <v>0.44940826752867624</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52679288664401935</v>
+        <v>0.4697709487525793</v>
       </c>
       <c r="E15">
         <v>13</v>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53665158053090301</v>
+        <v>0.81977564546208415</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33228141348365603</v>
+        <v>0.71385395513140448</v>
       </c>
       <c r="E17">
         <v>15</v>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25051132116471853</v>
+        <v>0.72355138963746546</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5509257173165776E-2</v>
+        <v>0.29959237212957568</v>
       </c>
       <c r="E19">
         <v>17</v>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4609338100097442</v>
+        <v>0.46546037830777465</v>
       </c>
       <c r="E20">
         <v>18</v>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83576005364923756</v>
+        <v>0.95959396255641061</v>
       </c>
       <c r="E21">
         <v>19</v>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37434430263813501</v>
+        <v>0.41605020474058296</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58893619360636273</v>
+        <v>0.62065817679922175</v>
       </c>
       <c r="E23">
         <v>21</v>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67959844390884117</v>
+        <v>0.18221950865022818</v>
       </c>
       <c r="E24">
         <v>22</v>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72000754956787172</v>
+        <v>0.77538917863564427</v>
       </c>
       <c r="E25">
         <v>23</v>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78623574040952438</v>
+        <v>5.7821953097666468E-3</v>
       </c>
       <c r="E26">
         <v>24</v>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62608167375364798</v>
+        <v>0.78427745629450707</v>
       </c>
       <c r="E27">
         <v>25</v>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81250864521002242</v>
+        <v>0.10236067230001344</v>
       </c>
       <c r="E28">
         <v>26</v>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87855002799238069</v>
+        <v>0.78359138309340404</v>
       </c>
       <c r="E29">
         <v>27</v>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67817495748734258</v>
+        <v>0.5080368510419967</v>
       </c>
       <c r="E30">
         <v>28</v>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42370636231069914</v>
+        <v>0.41570057052739073</v>
       </c>
       <c r="E31">
         <v>29</v>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44089186956593562</v>
+        <v>0.71481708779543485</v>
       </c>
       <c r="E32">
         <v>30</v>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76919109234080008</v>
+        <v>0.10241069996784857</v>
       </c>
       <c r="E33">
         <v>31</v>
@@ -4850,7 +4850,7 @@
       </c>
       <c r="B34">
         <f t="shared" ref="B34:B65" ca="1" si="1">RAND()</f>
-        <v>0.71222713590674736</v>
+        <v>0.83328796601364707</v>
       </c>
       <c r="E34">
         <v>32</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61930846201475542</v>
+        <v>0.38849225477781801</v>
       </c>
       <c r="E35">
         <v>33</v>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1978004627334482</v>
+        <v>0.3523684613327952</v>
       </c>
       <c r="E36">
         <v>34</v>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42909443632332478</v>
+        <v>0.28399080824444989</v>
       </c>
       <c r="E37">
         <v>35</v>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0560448814443473E-2</v>
+        <v>0.8564827514332376</v>
       </c>
       <c r="E38">
         <v>36</v>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46709368076632107</v>
+        <v>0.96195768445998076</v>
       </c>
       <c r="E39">
         <v>37</v>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3339195050363886E-2</v>
+        <v>0.96160941685279511</v>
       </c>
       <c r="E40">
         <v>38</v>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42890289711172358</v>
+        <v>0.32405678654183956</v>
       </c>
       <c r="E41">
         <v>39</v>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6220999037747138</v>
+        <v>0.74598055732657442</v>
       </c>
       <c r="E42">
         <v>40</v>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49459430780843261</v>
+        <v>0.77588465369314197</v>
       </c>
       <c r="E43">
         <v>41</v>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51642934912490324</v>
+        <v>0.11231536244808393</v>
       </c>
       <c r="E44">
         <v>42</v>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54215173388826254</v>
+        <v>5.7362995232448033E-2</v>
       </c>
       <c r="E45">
         <v>43</v>
@@ -5294,7 +5294,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68004949503426071</v>
+        <v>0.22843598399415399</v>
       </c>
       <c r="E46">
         <v>44</v>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80316196642620885</v>
+        <v>4.5294543271511722E-2</v>
       </c>
       <c r="E47">
         <v>45</v>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36822429248560906</v>
+        <v>0.25733400649598881</v>
       </c>
       <c r="E48">
         <v>46</v>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9811227102255532</v>
+        <v>0.6797784829078527</v>
       </c>
       <c r="E49">
         <v>47</v>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68295305222864644</v>
+        <v>0.10202937731879502</v>
       </c>
       <c r="E50">
         <v>48</v>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20012104523462149</v>
+        <v>0.47477253443051748</v>
       </c>
       <c r="E51">
         <v>49</v>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90134532494861541</v>
+        <v>3.5053987331373992E-2</v>
       </c>
       <c r="E52">
         <v>50</v>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39976857210612526</v>
+        <v>0.50210328018597394</v>
       </c>
       <c r="E53">
         <v>51</v>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22132748476528541</v>
+        <v>0.69616084580208948</v>
       </c>
       <c r="E54">
         <v>52</v>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22112950709990653</v>
+        <v>0.71837745407646547</v>
       </c>
       <c r="E55">
         <v>53</v>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93472783068958243</v>
+        <v>0.16960840187738624</v>
       </c>
       <c r="E56">
         <v>54</v>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78322124371582069</v>
+        <v>0.47003287206464262</v>
       </c>
       <c r="E57">
         <v>55</v>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6540190993026509</v>
+        <v>0.73449000675809684</v>
       </c>
       <c r="E58">
         <v>56</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93041436728083293</v>
+        <v>0.86790725619500531</v>
       </c>
       <c r="E59">
         <v>57</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69624377490240863</v>
+        <v>0.25653653710616686</v>
       </c>
       <c r="E60">
         <v>58</v>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81882715051443178</v>
+        <v>0.60475012211202794</v>
       </c>
       <c r="E61">
         <v>59</v>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55148417311654385</v>
+        <v>0.75851212266949219</v>
       </c>
       <c r="E62">
         <v>60</v>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97062742691172565</v>
+        <v>0.99191824823703956</v>
       </c>
       <c r="E63">
         <v>61</v>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80058774241188213</v>
+        <v>0.69819424624009929</v>
       </c>
       <c r="E64">
         <v>62</v>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79031768869792807</v>
+        <v>0.77404934435847184</v>
       </c>
       <c r="E65">
         <v>63</v>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="B66">
         <f t="shared" ref="B66:B91" ca="1" si="2">RAND()</f>
-        <v>0.618206434245828</v>
+        <v>0.45645328163248222</v>
       </c>
       <c r="E66">
         <v>64</v>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12889693440229055</v>
+        <v>0.78319212261247562</v>
       </c>
       <c r="E67">
         <v>65</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26252427512914533</v>
+        <v>0.50384599908922567</v>
       </c>
       <c r="E68">
         <v>66</v>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8246868001369263E-2</v>
+        <v>0.55405582350713267</v>
       </c>
       <c r="E69">
         <v>67</v>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51406872527242131</v>
+        <v>9.919346792301631E-2</v>
       </c>
       <c r="E70">
         <v>68</v>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99354662579591246</v>
+        <v>0.37257251402850911</v>
       </c>
       <c r="E71">
         <v>69</v>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44478347277046126</v>
+        <v>0.55139041479720974</v>
       </c>
       <c r="E72">
         <v>70</v>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10902822132246071</v>
+        <v>0.48601855971498231</v>
       </c>
       <c r="E73">
         <v>71</v>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14819559170414964</v>
+        <v>0.19208238524659471</v>
       </c>
       <c r="E74">
         <v>72</v>
@@ -6367,7 +6367,7 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20013557602216958</v>
+        <v>0.34580453941559997</v>
       </c>
       <c r="E75">
         <v>73</v>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62998633113649394</v>
+        <v>0.99660286636085726</v>
       </c>
       <c r="E76">
         <v>74</v>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96168022774643958</v>
+        <v>0.66459833523693179</v>
       </c>
       <c r="E77">
         <v>75</v>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13228734745186188</v>
+        <v>0.57379366973928247</v>
       </c>
       <c r="E78">
         <v>76</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42929954806433501</v>
+        <v>0.39514027071341928</v>
       </c>
       <c r="E79">
         <v>77</v>
@@ -6552,7 +6552,7 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19628256197656213</v>
+        <v>0.44688206308191769</v>
       </c>
       <c r="E80">
         <v>78</v>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4680708099748625</v>
+        <v>0.7781543331134726</v>
       </c>
       <c r="E81">
         <v>79</v>
@@ -6626,7 +6626,7 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="2"/>
-        <v>7.4269335444437923E-2</v>
+        <v>0.2141569330013452</v>
       </c>
       <c r="E82">
         <v>80</v>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72659506623625303</v>
+        <v>0.78093423805303197</v>
       </c>
       <c r="E83">
         <v>81</v>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9067778237634392E-2</v>
+        <v>0.93906738883425223</v>
       </c>
       <c r="E84">
         <v>82</v>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89557956312707021</v>
+        <v>0.88282056702147282</v>
       </c>
       <c r="E85">
         <v>83</v>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19548840336036166</v>
+        <v>0.55381709257446243</v>
       </c>
       <c r="E86">
         <v>84</v>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96712887183913532</v>
+        <v>0.61835859026211426</v>
       </c>
       <c r="E87">
         <v>85</v>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40418889188686891</v>
+        <v>0.92292831173603229</v>
       </c>
       <c r="E88">
         <v>86</v>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62669549975664418</v>
+        <v>0.79506146119968335</v>
       </c>
       <c r="E89">
         <v>87</v>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95296833075452902</v>
+        <v>0.88516775481007348</v>
       </c>
       <c r="E90">
         <v>88</v>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57499076401468241</v>
+        <v>0.42837951913475358</v>
       </c>
       <c r="E91">
         <v>89</v>
